--- a/ieasyreports/templates/basic_template.xlsx
+++ b/ieasyreports/templates/basic_template.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t xml:space="preserve">{{TITLE}}</t>
   </si>
@@ -29,6 +29,21 @@
   </si>
   <si>
     <t xml:space="preserve">Date: {{DATE}}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This is a hardcoded cell value.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Single</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">per</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cell.</t>
   </si>
 </sst>
 </file>
@@ -38,11 +53,12 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
+  <fonts count="7">
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -64,11 +80,21 @@
       <sz val="15"/>
       <name val="Arial"/>
       <family val="2"/>
-    </font>
-    <font>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
       <sz val="13"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -113,17 +139,29 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -143,13 +181,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
+      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -159,7 +197,7 @@
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
     </row>
-    <row r="2" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" s="3" customFormat="true" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -169,11 +207,34 @@
       </c>
       <c r="D2" s="2"/>
     </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="C2:D2"/>
+    <mergeCell ref="A4:D4"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/ieasyreports/templates/basic_template.xlsx
+++ b/ieasyreports/templates/basic_template.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t xml:space="preserve">{{TITLE}}</t>
   </si>
@@ -44,6 +44,24 @@
   </si>
   <si>
     <t xml:space="preserve">cell.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{{HEADER.SITE_BASIN}}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{{DATA.SITE_NAME}}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{{DATA.WATER_LEVEL_MORNING}}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{{DATA.DISCHARGE_MORNING}}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{{DATA.WATER_LEVEL_EVENING}}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{{DATA.DISCHARGE_EVENING}}</t>
   </si>
 </sst>
 </file>
@@ -53,7 +71,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -92,6 +110,13 @@
     <font>
       <b val="true"/>
       <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="12"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
@@ -139,7 +164,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -162,6 +187,10 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -181,13 +210,20 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
+      <selection pane="topLeft" activeCell="G17" activeCellId="0" sqref="G17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.36"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.68"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="16.26"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="15.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="0" width="11.25"/>
+  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -229,12 +265,39 @@
         <v>7</v>
       </c>
     </row>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A7:E7"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/ieasyreports/templates/basic_template.xlsx
+++ b/ieasyreports/templates/basic_template.xlsx
@@ -20,14 +20,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t xml:space="preserve">{{TITLE}}</t>
   </si>
   <si>
-    <t xml:space="preserve">By: {{AUTHOR}}</t>
-  </si>
-  <si>
     <t xml:space="preserve">Date: {{DATE}}</t>
   </si>
   <si>
@@ -46,7 +43,22 @@
     <t xml:space="preserve">cell.</t>
   </si>
   <si>
-    <t xml:space="preserve">{{HEADER.SITE_BASIN}}</t>
+    <t xml:space="preserve">Basin: {{HEADER.SITE_BASIN}}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SITE NAME</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Morning water level</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Morning discharge</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Evening water level</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Evening discharge</t>
   </si>
   <si>
     <t xml:space="preserve">{{DATA.SITE_NAME}}</t>
@@ -62,6 +74,9 @@
   </si>
   <si>
     <t xml:space="preserve">{{DATA.DISCHARGE_EVENING}}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Report generated by: {{AUTHOR}} on {{DATE}}</t>
   </si>
 </sst>
 </file>
@@ -71,7 +86,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="10">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -109,6 +124,20 @@
     </font>
     <font>
       <b val="true"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="14"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <i val="true"/>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -164,7 +193,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -191,6 +220,14 @@
     </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -210,13 +247,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G17" activeCellId="0" sqref="G17"/>
+      <selection pane="topLeft" activeCell="E17" activeCellId="0" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.7421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.36"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.68"/>
@@ -238,14 +275,12 @@
         <v>1</v>
       </c>
       <c r="B2" s="2"/>
-      <c r="C2" s="2" t="s">
-        <v>2</v>
-      </c>
+      <c r="C2" s="2"/>
       <c r="D2" s="2"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
@@ -253,42 +288,64 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="C5" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="D5" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="5" t="s">
+    </row>
+    <row r="7" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="6" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="6" t="s">
-        <v>8</v>
       </c>
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
     </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
+    <row r="8" s="5" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="0" t="s">
+      <c r="C8" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="0" t="s">
+      <c r="D8" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="0" t="s">
+      <c r="E8" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="0" t="s">
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="3" t="s">
         <v>13</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="8" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/ieasyreports/templates/basic_template.xlsx
+++ b/ieasyreports/templates/basic_template.xlsx
@@ -46,7 +46,7 @@
     <t xml:space="preserve">Basin: {{HEADER.SITE_BASIN}}</t>
   </si>
   <si>
-    <t xml:space="preserve">SITE NAME</t>
+    <t xml:space="preserve">Site name</t>
   </si>
   <si>
     <t xml:space="preserve">Morning water level</t>
@@ -250,10 +250,10 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E17" activeCellId="0" sqref="E17"/>
+      <selection pane="topLeft" activeCell="A9" activeCellId="0" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.7421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.7578125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.36"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.68"/>

--- a/ieasyreports/templates/basic_template.xlsx
+++ b/ieasyreports/templates/basic_template.xlsx
@@ -76,7 +76,7 @@
     <t xml:space="preserve">{{DATA.DISCHARGE_EVENING}}</t>
   </si>
   <si>
-    <t xml:space="preserve">Report generated by: {{AUTHOR}} on {{DATE}}</t>
+    <t xml:space="preserve">Report generated by {{AUTHOR}} on {{DATE}}</t>
   </si>
 </sst>
 </file>
@@ -250,10 +250,10 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A9" activeCellId="0" sqref="A9"/>
+      <selection pane="topLeft" activeCell="D23" activeCellId="0" sqref="D23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.7578125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.78515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.36"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.68"/>
